--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FE3766-B90F-4938-8E58-56D4AB7C6260}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF4996-5FA2-4700-9765-8EB21BC88326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35055" yWindow="-10800" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33600" yWindow="-9480" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,11 +1335,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DDF4996-5FA2-4700-9765-8EB21BC88326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92366CBF-6BA7-4860-BA1D-607948D666F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-9480" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-12840" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92366CBF-6BA7-4860-BA1D-607948D666F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF7B83-6450-4022-B1D3-D683292B79AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30240" yWindow="-12840" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30675" yWindow="-12405" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,11 +1335,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDDF7B83-6450-4022-B1D3-D683292B79AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C31A36-8888-495B-B95A-10D518ED4554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30675" yWindow="-12405" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C31A36-8888-495B-B95A-10D518ED4554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F67C5D-19A7-4120-9F32-9B1F47156168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29760" yWindow="-13320" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F67C5D-19A7-4120-9F32-9B1F47156168}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD66C93-032A-4C57-A124-432A305EE3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29760" yWindow="-13320" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32760" yWindow="-10320" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,15 +1338,15 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FD66C93-032A-4C57-A124-432A305EE3A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85F524F-BE94-4609-AB4C-760ADD93D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32760" yWindow="-10320" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B85F524F-BE94-4609-AB4C-760ADD93D9A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11106993-788B-46AD-B740-966A3B9B6C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11106993-788B-46AD-B740-966A3B9B6C1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6344CE-6ED5-4856-83EC-A44CE3A4F2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B6344CE-6ED5-4856-83EC-A44CE3A4F2B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65ECE5-509A-4FF8-8B92-3DA337738D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E65ECE5-509A-4FF8-8B92-3DA337738D93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C714F-D898-410A-9544-96FA854C97FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C714F-D898-410A-9544-96FA854C97FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{860A9952-5EF0-46D0-8B6F-6484CD891DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2328" yWindow="2604" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0C714F-D898-410A-9544-96FA854C97FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E824589-D17F-46DD-9CF0-059A00F3EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E824589-D17F-46DD-9CF0-059A00F3EFC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087C4F47-921F-4036-9A56-ABE2C4813D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087C4F47-921F-4036-9A56-ABE2C4813D95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5C19E-74B2-46FD-A80A-397544B5D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D5C19E-74B2-46FD-A80A-397544B5D287}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0D4573-B3C9-4634-AF0A-7996C8A9B573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2030.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2030.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D0D4573-B3C9-4634-AF0A-7996C8A9B573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67EA87B4-4E13-4976-B0A9-808AFD1252FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
